--- a/excelTemplate/FreightChargeListTemplate.xlsx
+++ b/excelTemplate/FreightChargeListTemplate.xlsx
@@ -29,7 +29,7 @@
     <author>EHJin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>B/L#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%forRow rs1,i in _data_%&gt;&lt;%=rs1.bl%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.bl_status%&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +148,34 @@
   </si>
   <si>
     <t>Receivable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/L PRINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/L PRINT USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/L PRINT TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bl%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_%&gt;&lt;%=rs1.bl_print%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bl_print_time%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bl_print_user_name%&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,147 +580,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="26.75" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
+      <c r="N2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excelTemplate/FreightChargeListTemplate.xlsx
+++ b/excelTemplate/FreightChargeListTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC9170-4ED7-A34F-A9B2-C3EBD07A3AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Freight Charge List" sheetId="8" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>EHJin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>B/L#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,14 +177,22 @@
   </si>
   <si>
     <t>&lt;%=rs1.bl_print_user_name%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.sales_code%&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,7 +310,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,34 +588,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
     <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="32.875" customWidth="1"/>
+    <col min="16" max="16" width="32.83203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -655,8 +665,11 @@
       <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="48">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -705,8 +718,11 @@
       <c r="P2" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="Q2" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="4"/>
@@ -718,7 +734,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4"/>
@@ -730,7 +746,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="D5" s="1"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
